--- a/Question_Set2/Role-specific skills/Data Science.xlsx
+++ b/Question_Set2/Role-specific skills/Data Science.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following is true regarding any probability distribution?', 'ques_type': 2, 'options': ['The sum (or integral) of the probabilities over all possible outcomes is always &amp;lt= 1.', 'For a continuous distribution, any particular event has probability 0 to occur.', 'For a discrete distribution, any particular event has probability 0 to occur.', 'The mean of the distribution is always the same as the median.'], 'score': 'For a continuous distribution, any particular event has probability 0 to occur.'}, {'title': 'Using the following confusion matrix, what is the accuracy?', 'ques_type': 2, 'options': ['36/54', '44/54', '46/54', 'Accuracy can only be calculated on binary data.'], 'score': '36/54'}, {'title': 'Which of the following affects the bias-variance trade-off?', 'ques_type': 15, 'options': ['The number of categorical and binary features.', 'A linear versus a non-linear algorithm.', 'Normalizing your data to N~(0,1).', 'Increasing the number and degree of polynomial features.', 'Increase the learning rate for faster training.'], 'score': ['A linear versus a non-linear algorithm.', 'Increasing the number and degree of polynomial features.']}, {'title': 'What is the main advantage of Convolutional Neural Networks (CNNs) as opposed to regular neural networks when working with image data?Here we assume we will be looking to achieve the same level of performance with both methods.', 'ques_type': 2, 'options': ['CNNs can read pixel by pixel for image data, while regular neural networks can’t.', 'Regular neural networks are more complex to perform inferences on than CNNs.', 'CNNs are well suited to high dimensional data, which results in them needing to learn fewer parameters.', 'The optimization algorithms are easier to implement and perform hyperparameter tuning on for CNNs than for regular neural networks.'], 'score': 'CNNs are well suited to high dimensional data, which results in them needing to learn fewer parameters.'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following is true regarding any probability distribution?",
+        "ques_type": 2,
+        "options": [
+            "The sum (or integral) of the probabilities over all possible outcomes is always &amp;lt= 1.",
+            "For a continuous distribution, any particular event has probability 0 to occur.",
+            "For a discrete distribution, any particular event has probability 0 to occur.",
+            "The mean of the distribution is always the same as the median."
+        ],
+        "score": "For a continuous distribution, any particular event has probability 0 to occur."
+    },
+    {
+        "title": "Using the following confusion matrix, what is the accuracy?",
+        "ques_type": 2,
+        "options": [
+            "36/54",
+            "44/54",
+            "46/54",
+            "Accuracy can only be calculated on binary data."
+        ],
+        "score": "36/54"
+    },
+    {
+        "title": "Which of the following affects the bias-variance trade-off?",
+        "ques_type": 15,
+        "options": [
+            "The number of categorical and binary features.",
+            "A linear versus a non-linear algorithm.",
+            "Normalizing your data to N~(0,1).",
+            "Increasing the number and degree of polynomial features.",
+            "Increase the learning rate for faster training."
+        ],
+        "score": [
+            "A linear versus a non-linear algorithm.",
+            "Increasing the number and degree of polynomial features."
+        ]
+    },
+    {
+        "title": "What is the main advantage of Convolutional Neural Networks (CNNs) as opposed to regular neural networks when working with image data?Here we assume we will be looking to achieve the same level of performance with both methods.",
+        "ques_type": 2,
+        "options": [
+            "CNNs can read pixel by pixel for image data, while regular neural networks can\u2019t.",
+            "Regular neural networks are more complex to perform inferences on than CNNs.",
+            "CNNs are well suited to high dimensional data, which results in them needing to learn fewer parameters.",
+            "The optimization algorithms are easier to implement and perform hyperparameter tuning on for CNNs than for regular neural networks."
+        ],
+        "score": "CNNs are well suited to high dimensional data, which results in them needing to learn fewer parameters."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
